--- a/pred_ohlcv/54_21/2019-10-05 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 TMTG ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>1694705.29574913</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2245645.456749131</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2256237.281849131</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2767602.556450869</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1805592.185050869</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4151048.368250869</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>357755.305387062</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-781651.106012938</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1851083.241512938</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>715894.7982870622</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1117352.320287062</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1115352.320287062</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1115233.963987062</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1272363.167487062</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1073100.921487062</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>596178.1715870623</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>596188.1715870623</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1655731.607812938</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1694046.636812938</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1691239.120412938</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1691346.983912938</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-6642270.536312938</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-11087629.24261294</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-68934976.55455658</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-69163886.37265658</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-69163745.79765658</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-73063350.97535658</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-73063360.97535658</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-77050307.66005658</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-116811477.5362702</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-117042370.5673702</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-116612342.6526702</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-117276033.9183702</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-116184132.1139702</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-116183122.0129601</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-116954159.7765601</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-117189232.8086601</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-117050822.7695601</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-117050926.2356601</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-116189605.9170601</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-116189766.5145601</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-05 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 TMTG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>378071.0417025789</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>789475.7849025789</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2942369.334749131</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1694705.29574913</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2245645.456749131</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2256237.281849131</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2767602.556450869</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1805592.185050869</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4151048.368250869</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4025449.784250869</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>357755.305387062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-777905.2441129379</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-781651.106012938</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1851083.241512938</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1140042.897387062</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>715894.7982870622</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1117352.320287062</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1115352.320287062</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1115362.320287062</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1115233.963987062</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1272363.167487062</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1073100.921487062</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1073110.921487062</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>596178.1715870623</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>596188.1715870623</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1713807.552312938</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1655731.607812938</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1694046.636812938</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1691239.120412938</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1691346.983912938</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1319691.944812938</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-6642270.536312938</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-11087629.24261294</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-11182825.40961294</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-68934976.55455658</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-69163886.37265658</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-69163745.79765658</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-73063350.97535658</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-73063360.97535658</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-77050307.66005658</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-110965433.5052702</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-117454108.9214702</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-116811487.6564702</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-116811597.9356702</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-116811493.5362702</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-116811477.5362702</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-116811617.5139702</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-116807117.5139702</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-117042370.5673702</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-116738276.8103702</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-117168868.6566702</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-116612342.6526702</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-116678268.9896702</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-117276033.9183702</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-117175480.8571702</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-116651323.8317702</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-116090334.1394702</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-116090471.3971702</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-116090345.3755702</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-116090471.2290702</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-116090461.2290702</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-116090584.5925702</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-116090574.5925702</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-116184000.3708702</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-116184132.1139702</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-116183122.0129601</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-116183225.7572601</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-115618177.1676601</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-115663836.8782601</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-117050721.7687601</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-117050832.7695601</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-117050822.7695601</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-117050926.2356601</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-116189605.9170601</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-116189766.5145601</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-116189004.2697601</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-116188853.6792601</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-117188853.6792601</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
